--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd28-Cd80.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd28-Cd80.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Cd28</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.23022955461977</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="H2">
-        <v>3.23022955461977</v>
+        <v>10.421894</v>
       </c>
       <c r="I2">
-        <v>0.5917442108123033</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="J2">
-        <v>0.5917442108123033</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.549841606829399</v>
+        <v>0.6166306666666667</v>
       </c>
       <c r="N2">
-        <v>0.549841606829399</v>
+        <v>1.849892</v>
       </c>
       <c r="O2">
-        <v>0.01602042830605331</v>
+        <v>0.01585912217154475</v>
       </c>
       <c r="P2">
-        <v>0.01602042830605331</v>
+        <v>0.01594598818140205</v>
       </c>
       <c r="Q2">
-        <v>1.776114608739948</v>
+        <v>2.142153148383111</v>
       </c>
       <c r="R2">
-        <v>1.776114608739948</v>
+        <v>19.279378335448</v>
       </c>
       <c r="S2">
-        <v>0.009479995704840601</v>
+        <v>0.008642321448612598</v>
       </c>
       <c r="T2">
-        <v>0.009479995704840601</v>
+        <v>0.008710782835449269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.23022955461977</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="H3">
-        <v>3.23022955461977</v>
+        <v>10.421894</v>
       </c>
       <c r="I3">
-        <v>0.5917442108123033</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="J3">
-        <v>0.5917442108123033</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.31096286586931</v>
+        <v>2.510701</v>
       </c>
       <c r="N3">
-        <v>2.31096286586931</v>
+        <v>7.532103</v>
       </c>
       <c r="O3">
-        <v>0.06733323642802806</v>
+        <v>0.06457271110186903</v>
       </c>
       <c r="P3">
-        <v>0.06733323642802806</v>
+        <v>0.06492639863251634</v>
       </c>
       <c r="Q3">
-        <v>7.464940548959849</v>
+        <v>8.722086562564668</v>
       </c>
       <c r="R3">
-        <v>7.464940548959849</v>
+        <v>78.498779063082</v>
       </c>
       <c r="S3">
-        <v>0.0398440528515417</v>
+        <v>0.03518846252108734</v>
       </c>
       <c r="T3">
-        <v>0.0398440528515417</v>
+        <v>0.0354672129655331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.23022955461977</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="H4">
-        <v>3.23022955461977</v>
+        <v>10.421894</v>
       </c>
       <c r="I4">
-        <v>0.5917442108123033</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="J4">
-        <v>0.5917442108123033</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.56314081990827</v>
+        <v>12.23029433333333</v>
       </c>
       <c r="N4">
-        <v>9.56314081990827</v>
+        <v>36.690883</v>
       </c>
       <c r="O4">
-        <v>0.2786359016544339</v>
+        <v>0.314550901392543</v>
       </c>
       <c r="P4">
-        <v>0.2786359016544339</v>
+        <v>0.3162738077051013</v>
       </c>
       <c r="Q4">
-        <v>30.89114011145843</v>
+        <v>42.48761037693356</v>
       </c>
       <c r="R4">
-        <v>30.89114011145843</v>
+        <v>382.388493392402</v>
       </c>
       <c r="S4">
-        <v>0.1648811817284775</v>
+        <v>0.1714123879228816</v>
       </c>
       <c r="T4">
-        <v>0.1648811817284775</v>
+        <v>0.1727702556981042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.23022955461977</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="H5">
-        <v>3.23022955461977</v>
+        <v>10.421894</v>
       </c>
       <c r="I5">
-        <v>0.5917442108123033</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="J5">
-        <v>0.5917442108123033</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8973347833846</v>
+        <v>22.88871233333333</v>
       </c>
       <c r="N5">
-        <v>21.8973347833846</v>
+        <v>68.66613700000001</v>
       </c>
       <c r="O5">
-        <v>0.6380104336114848</v>
+        <v>0.5886747203247699</v>
       </c>
       <c r="P5">
-        <v>0.6380104336114848</v>
+        <v>0.591899099549884</v>
       </c>
       <c r="Q5">
-        <v>70.73341798469244</v>
+        <v>79.51457791149757</v>
       </c>
       <c r="R5">
-        <v>70.73341798469244</v>
+        <v>715.6312012034781</v>
       </c>
       <c r="S5">
-        <v>0.3775389805274435</v>
+        <v>0.3207943104724336</v>
       </c>
       <c r="T5">
-        <v>0.3775389805274435</v>
+        <v>0.3233355285369135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.22859791778684</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="H6">
-        <v>2.22859791778684</v>
+        <v>10.421894</v>
       </c>
       <c r="I6">
-        <v>0.4082557891876967</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="J6">
-        <v>0.4082557891876967</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.549841606829399</v>
+        <v>0.635427</v>
       </c>
       <c r="N6">
-        <v>0.549841606829399</v>
+        <v>1.270854</v>
       </c>
       <c r="O6">
-        <v>0.01602042830605331</v>
+        <v>0.01634254500927324</v>
       </c>
       <c r="P6">
-        <v>0.01602042830605331</v>
+        <v>0.01095470593109626</v>
       </c>
       <c r="Q6">
-        <v>1.225375860092569</v>
+        <v>2.207450946246</v>
       </c>
       <c r="R6">
-        <v>1.225375860092569</v>
+        <v>13.244705677476</v>
       </c>
       <c r="S6">
-        <v>0.006540432601212708</v>
+        <v>0.00890575945697515</v>
       </c>
       <c r="T6">
-        <v>0.006540432601212708</v>
+        <v>0.005984205137144247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.22859791778684</v>
+        <v>2.854567333333333</v>
       </c>
       <c r="H7">
-        <v>2.22859791778684</v>
+        <v>8.563701999999999</v>
       </c>
       <c r="I7">
-        <v>0.4082557891876967</v>
+        <v>0.4477815193550676</v>
       </c>
       <c r="J7">
-        <v>0.4082557891876967</v>
+        <v>0.4488700649961731</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.31096286586931</v>
+        <v>0.6166306666666667</v>
       </c>
       <c r="N7">
-        <v>2.31096286586931</v>
+        <v>1.849892</v>
       </c>
       <c r="O7">
-        <v>0.06733323642802806</v>
+        <v>0.01585912217154475</v>
       </c>
       <c r="P7">
-        <v>0.06733323642802806</v>
+        <v>0.01594598818140205</v>
       </c>
       <c r="Q7">
-        <v>5.150207030959053</v>
+        <v>1.760213757798222</v>
       </c>
       <c r="R7">
-        <v>5.150207030959053</v>
+        <v>15.841923820184</v>
       </c>
       <c r="S7">
-        <v>0.02748918357648636</v>
+        <v>0.007101421821611946</v>
       </c>
       <c r="T7">
-        <v>0.02748918357648636</v>
+        <v>0.007157676751414145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.22859791778684</v>
+        <v>2.854567333333333</v>
       </c>
       <c r="H8">
-        <v>2.22859791778684</v>
+        <v>8.563701999999999</v>
       </c>
       <c r="I8">
-        <v>0.4082557891876967</v>
+        <v>0.4477815193550676</v>
       </c>
       <c r="J8">
-        <v>0.4082557891876967</v>
+        <v>0.4488700649961731</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.56314081990827</v>
+        <v>2.510701</v>
       </c>
       <c r="N8">
-        <v>9.56314081990827</v>
+        <v>7.532103</v>
       </c>
       <c r="O8">
-        <v>0.2786359016544339</v>
+        <v>0.06457271110186903</v>
       </c>
       <c r="P8">
-        <v>0.2786359016544339</v>
+        <v>0.06492639863251634</v>
       </c>
       <c r="Q8">
-        <v>21.3123957187499</v>
+        <v>7.166965058367333</v>
       </c>
       <c r="R8">
-        <v>21.3123957187499</v>
+        <v>64.50268552530599</v>
       </c>
       <c r="S8">
-        <v>0.1137547199259563</v>
+        <v>0.02891446668607076</v>
       </c>
       <c r="T8">
-        <v>0.1137547199259563</v>
+        <v>0.02914351677414505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.854567333333333</v>
+      </c>
+      <c r="H9">
+        <v>8.563701999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.4477815193550676</v>
+      </c>
+      <c r="J9">
+        <v>0.4488700649961731</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.23029433333333</v>
+      </c>
+      <c r="N9">
+        <v>36.690883</v>
+      </c>
+      <c r="O9">
+        <v>0.314550901392543</v>
+      </c>
+      <c r="P9">
+        <v>0.3162738077051013</v>
+      </c>
+      <c r="Q9">
+        <v>34.91219868098511</v>
+      </c>
+      <c r="R9">
+        <v>314.209788128866</v>
+      </c>
+      <c r="S9">
+        <v>0.140850080540059</v>
+      </c>
+      <c r="T9">
+        <v>0.141965844621176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.854567333333333</v>
+      </c>
+      <c r="H10">
+        <v>8.563701999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4477815193550676</v>
+      </c>
+      <c r="J10">
+        <v>0.4488700649961731</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.88871233333333</v>
+      </c>
+      <c r="N10">
+        <v>68.66613700000001</v>
+      </c>
+      <c r="O10">
+        <v>0.5886747203247699</v>
+      </c>
+      <c r="P10">
+        <v>0.591899099549884</v>
+      </c>
+      <c r="Q10">
+        <v>65.33737052879711</v>
+      </c>
+      <c r="R10">
+        <v>588.036334759174</v>
+      </c>
+      <c r="S10">
+        <v>0.2635976606729449</v>
+      </c>
+      <c r="T10">
+        <v>0.2656857872861327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.854567333333333</v>
+      </c>
+      <c r="H11">
+        <v>8.563701999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.4477815193550676</v>
+      </c>
+      <c r="J11">
+        <v>0.4488700649961731</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.635427</v>
+      </c>
+      <c r="N11">
+        <v>1.270854</v>
+      </c>
+      <c r="O11">
+        <v>0.01634254500927324</v>
+      </c>
+      <c r="P11">
+        <v>0.01095470593109626</v>
+      </c>
+      <c r="Q11">
+        <v>1.813869156918</v>
+      </c>
+      <c r="R11">
+        <v>10.883214941508</v>
+      </c>
+      <c r="S11">
+        <v>0.00731788963438095</v>
+      </c>
+      <c r="T11">
+        <v>0.00491723956330514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.046379</v>
+      </c>
+      <c r="H12">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="J12">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6166306666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.849892</v>
+      </c>
+      <c r="O12">
+        <v>0.01585912217154475</v>
+      </c>
+      <c r="P12">
+        <v>0.01594598818140205</v>
+      </c>
+      <c r="Q12">
+        <v>0.02859871368933333</v>
+      </c>
+      <c r="R12">
+        <v>0.171592282136</v>
+      </c>
+      <c r="S12">
+        <v>0.0001153789013202025</v>
+      </c>
+      <c r="T12">
+        <v>7.752859453863216E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.046379</v>
+      </c>
+      <c r="H13">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="J13">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.510701</v>
+      </c>
+      <c r="N13">
+        <v>7.532103</v>
+      </c>
+      <c r="O13">
+        <v>0.06457271110186903</v>
+      </c>
+      <c r="P13">
+        <v>0.06492639863251634</v>
+      </c>
+      <c r="Q13">
+        <v>0.116443801679</v>
+      </c>
+      <c r="R13">
+        <v>0.698662810074</v>
+      </c>
+      <c r="S13">
+        <v>0.0004697818947109353</v>
+      </c>
+      <c r="T13">
+        <v>0.0003156688928381846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.046379</v>
+      </c>
+      <c r="H14">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="J14">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.23029433333333</v>
+      </c>
+      <c r="N14">
+        <v>36.690883</v>
+      </c>
+      <c r="O14">
+        <v>0.314550901392543</v>
+      </c>
+      <c r="P14">
+        <v>0.3162738077051013</v>
+      </c>
+      <c r="Q14">
+        <v>0.5672288208856666</v>
+      </c>
+      <c r="R14">
+        <v>3.403372925314</v>
+      </c>
+      <c r="S14">
+        <v>0.002288432929602429</v>
+      </c>
+      <c r="T14">
+        <v>0.001537707385821113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.22859791778684</v>
-      </c>
-      <c r="H9">
-        <v>2.22859791778684</v>
-      </c>
-      <c r="I9">
-        <v>0.4082557891876967</v>
-      </c>
-      <c r="J9">
-        <v>0.4082557891876967</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>21.8973347833846</v>
-      </c>
-      <c r="N9">
-        <v>21.8973347833846</v>
-      </c>
-      <c r="O9">
-        <v>0.6380104336114848</v>
-      </c>
-      <c r="P9">
-        <v>0.6380104336114848</v>
-      </c>
-      <c r="Q9">
-        <v>48.80035470333227</v>
-      </c>
-      <c r="R9">
-        <v>48.80035470333227</v>
-      </c>
-      <c r="S9">
-        <v>0.2604714530840413</v>
-      </c>
-      <c r="T9">
-        <v>0.2604714530840413</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.046379</v>
+      </c>
+      <c r="H15">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="J15">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.88871233333333</v>
+      </c>
+      <c r="N15">
+        <v>68.66613700000001</v>
+      </c>
+      <c r="O15">
+        <v>0.5886747203247699</v>
+      </c>
+      <c r="P15">
+        <v>0.591899099549884</v>
+      </c>
+      <c r="Q15">
+        <v>1.061555589307667</v>
+      </c>
+      <c r="R15">
+        <v>6.369333535846</v>
+      </c>
+      <c r="S15">
+        <v>0.004282749179391289</v>
+      </c>
+      <c r="T15">
+        <v>0.002877783726837657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.046379</v>
+      </c>
+      <c r="H16">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="J16">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.635427</v>
+      </c>
+      <c r="N16">
+        <v>1.270854</v>
+      </c>
+      <c r="O16">
+        <v>0.01634254500927324</v>
+      </c>
+      <c r="P16">
+        <v>0.01095470593109626</v>
+      </c>
+      <c r="Q16">
+        <v>0.029470468833</v>
+      </c>
+      <c r="R16">
+        <v>0.117881875332</v>
+      </c>
+      <c r="S16">
+        <v>0.0001188959179171417</v>
+      </c>
+      <c r="T16">
+        <v>5.326123064686957E-05</v>
       </c>
     </row>
   </sheetData>
